--- a/featurenames.xlsx
+++ b/featurenames.xlsx
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/featurenames.xlsx
+++ b/featurenames.xlsx
@@ -36,27 +36,9 @@
     <t>SAT Score</t>
   </si>
   <si>
-    <t>201309_INST_TERM_GPA</t>
-  </si>
-  <si>
-    <t>201401_INST_TERM_GPA</t>
-  </si>
-  <si>
-    <t>CURRENT_TOTAL_INST_GPA_May_2014</t>
-  </si>
-  <si>
     <t>Fall 2014 GPA</t>
   </si>
   <si>
-    <t>CURRENT_TOTAL_INST_GPA_Fall_2014</t>
-  </si>
-  <si>
-    <t>SOC_DESC</t>
-  </si>
-  <si>
-    <t>Converted GPA</t>
-  </si>
-  <si>
     <t>Question1</t>
   </si>
   <si>
@@ -133,6 +115,24 @@
   </si>
   <si>
     <t>Question30</t>
+  </si>
+  <si>
+    <t>High School GPA</t>
+  </si>
+  <si>
+    <t>Strength of Curriculum</t>
+  </si>
+  <si>
+    <t>Spring 2014 GPA</t>
+  </si>
+  <si>
+    <t>Fall 2013 GPA</t>
+  </si>
+  <si>
+    <t>Overall GPA as of May 2014</t>
+  </si>
+  <si>
+    <t>Overall GPA as of Fall 2014</t>
   </si>
 </sst>
 </file>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -541,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -557,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -565,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -573,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -597,7 +597,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,7 +605,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -621,7 +621,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -645,7 +645,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,7 +653,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -677,7 +677,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -749,7 +749,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -765,7 +765,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -789,7 +789,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -797,7 +797,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
